--- a/biology/Zoologie/Heliozela/Heliozela.xlsx
+++ b/biology/Zoologie/Heliozela/Heliozela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliozela est un genre de lépidoptères de la famille des Heliozelidae. Il a été décrit par l'entomologiste allemand Gottlieb August Wilhelm Herrich-Schäffer en 1853[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliozela est un genre de lépidoptères de la famille des Heliozelidae. Il a été décrit par l'entomologiste allemand Gottlieb August Wilhelm Herrich-Schäffer en 1853.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Heliozela a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Heliozela a pour synonymes :
 Dyselachista (Spuler (en), 1910)
 Heliozella (Chambers, 1880)</t>
         </is>
@@ -543,11 +557,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Heliozela comporte 4 espèces selon les bases de données GBIF[2] et Fauna Europaea[3], toutes présentes en Europe :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Heliozela comporte 4 espèces selon les bases de données GBIF et Fauna Europaea, toutes présentes en Europe :
 Heliozela hammoniella (Sorhagen (en), 1885), ou connu en anglais plus communément comme « Birch Lift ».
-Heliozela lithargyrellum (Zeller, 1850), présent uniquement en France et Italie[4].
+Heliozela lithargyrellum (Zeller, 1850), présent uniquement en France et Italie.
 Heliozela resplendella (Stainton, 1851), ou « Alder Lift » en anglais.
 Heliozela sericiella (Haworth, 1828), ou « Oak Satin Lift » en anglais.
 La base de données BioLib cite 21 autres espèces supplémentaires :
